--- a/data_year/zb/综合/民族自治地方/民族自治地方人口.xlsx
+++ b/data_year/zb/综合/民族自治地方/民族自治地方人口.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BF20"/>
+  <dimension ref="A1:BF11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,185 +723,185 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513805</v>
+        <v>621500</v>
       </c>
       <c r="C2" t="n">
-        <v>12370</v>
+        <v>10569</v>
       </c>
       <c r="D2" t="n">
-        <v>22517</v>
+        <v>28199</v>
       </c>
       <c r="E2" t="n">
-        <v>579357</v>
+        <v>550746</v>
       </c>
       <c r="F2" t="n">
-        <v>207352</v>
+        <v>216257</v>
       </c>
       <c r="G2" t="n">
-        <v>396610</v>
+        <v>429709</v>
       </c>
       <c r="H2" t="n">
-        <v>2960293</v>
+        <v>2879974</v>
       </c>
       <c r="I2" t="n">
-        <v>15609</v>
+        <v>15393</v>
       </c>
       <c r="J2" t="n">
-        <v>16505</v>
+        <v>20074</v>
       </c>
       <c r="K2" t="n">
-        <v>634912</v>
+        <v>702839</v>
       </c>
       <c r="L2" t="n">
-        <v>1158989</v>
+        <v>1261311</v>
       </c>
       <c r="M2" t="n">
-        <v>1439673</v>
+        <v>1660932</v>
       </c>
       <c r="N2" t="n">
-        <v>1250458</v>
+        <v>1462588</v>
       </c>
       <c r="O2" t="n">
-        <v>9816805</v>
+        <v>10586087</v>
       </c>
       <c r="P2" t="n">
-        <v>8028133</v>
+        <v>8353912</v>
       </c>
       <c r="Q2" t="n">
-        <v>241198</v>
+        <v>289565</v>
       </c>
       <c r="R2" t="n">
-        <v>20899</v>
+        <v>23143</v>
       </c>
       <c r="S2" t="n">
-        <v>41028</v>
+        <v>51069</v>
       </c>
       <c r="T2" t="n">
-        <v>4890</v>
+        <v>3556</v>
       </c>
       <c r="U2" t="n">
-        <v>16178811</v>
+        <v>16926381</v>
       </c>
       <c r="V2" t="n">
-        <v>2971460</v>
+        <v>2870034</v>
       </c>
       <c r="W2" t="n">
-        <v>91882</v>
+        <v>119639</v>
       </c>
       <c r="X2" t="n">
-        <v>7762272</v>
+        <v>8714393</v>
       </c>
       <c r="Y2" t="n">
-        <v>17935</v>
+        <v>20556</v>
       </c>
       <c r="Z2" t="n">
-        <v>28759</v>
+        <v>37523</v>
       </c>
       <c r="AA2" t="n">
-        <v>453705</v>
+        <v>485966</v>
       </c>
       <c r="AB2" t="n">
-        <v>104503</v>
+        <v>130607</v>
       </c>
       <c r="AC2" t="n">
-        <v>33600</v>
+        <v>42861</v>
       </c>
       <c r="AD2" t="n">
-        <v>132143</v>
+        <v>147828</v>
       </c>
       <c r="AE2" t="n">
-        <v>1923842</v>
+        <v>1830929</v>
       </c>
       <c r="AF2" t="n">
-        <v>160823</v>
+        <v>186708</v>
       </c>
       <c r="AG2" t="n">
-        <v>107166</v>
+        <v>101192</v>
       </c>
       <c r="AH2" t="n">
-        <v>7766.7634</v>
+        <v>8813.762199999999</v>
       </c>
       <c r="AI2" t="n">
-        <v>16817.696</v>
+        <v>18531.0216</v>
       </c>
       <c r="AJ2" t="n">
-        <v>406902</v>
+        <v>411847</v>
       </c>
       <c r="AK2" t="n">
-        <v>10682262</v>
+        <v>10387958</v>
       </c>
       <c r="AL2" t="n">
-        <v>7426</v>
+        <v>6930</v>
       </c>
       <c r="AM2" t="n">
-        <v>2965</v>
+        <v>3682</v>
       </c>
       <c r="AN2" t="n">
-        <v>2637421</v>
+        <v>2796003</v>
       </c>
       <c r="AO2" t="n">
-        <v>709592</v>
+        <v>708651</v>
       </c>
       <c r="AP2" t="n">
-        <v>1858063</v>
+        <v>1933510</v>
       </c>
       <c r="AQ2" t="n">
-        <v>308839</v>
+        <v>326295</v>
       </c>
       <c r="AR2" t="n">
-        <v>8399393</v>
+        <v>10069346</v>
       </c>
       <c r="AS2" t="n">
-        <v>306072</v>
+        <v>309576</v>
       </c>
       <c r="AT2" t="n">
-        <v>8940116</v>
+        <v>9426007</v>
       </c>
       <c r="AU2" t="n">
-        <v>5813947</v>
+        <v>5981840</v>
       </c>
       <c r="AV2" t="n">
-        <v>5416021</v>
+        <v>6282187</v>
       </c>
       <c r="AW2" t="n">
-        <v>13719</v>
+        <v>14378</v>
       </c>
       <c r="AX2" t="n">
-        <v>4640</v>
+        <v>5354</v>
       </c>
       <c r="AY2" t="n">
-        <v>132394</v>
+        <v>131992</v>
       </c>
       <c r="AZ2" t="n">
-        <v>8196</v>
+        <v>8659</v>
       </c>
       <c r="BA2" t="n">
-        <v>30505</v>
+        <v>30875</v>
       </c>
       <c r="BB2" t="n">
-        <v>188824</v>
+        <v>190481</v>
       </c>
       <c r="BC2" t="n">
-        <v>8923</v>
+        <v>10561</v>
       </c>
       <c r="BD2" t="n">
-        <v>33936</v>
+        <v>39555</v>
       </c>
       <c r="BE2" t="n">
-        <v>4461</v>
+        <v>4009</v>
       </c>
       <c r="BF2" t="n">
-        <v>1247814</v>
+        <v>1463064</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -937,10 +937,10 @@
       <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="inlineStr"/>
       <c r="AH3" t="n">
-        <v>7799.4679</v>
+        <v>8913.863300000001</v>
       </c>
       <c r="AI3" t="n">
-        <v>16870.104</v>
+        <v>18656.1625</v>
       </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
@@ -969,7 +969,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -1005,10 +1005,10 @@
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="n">
-        <v>7930.29</v>
+        <v>9003.4652704</v>
       </c>
       <c r="AI4" t="n">
-        <v>17051.24</v>
+        <v>18762.3424</v>
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
@@ -1037,7 +1037,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -1073,10 +1073,10 @@
       <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="inlineStr"/>
       <c r="AH5" t="n">
-        <v>8016.9562</v>
+        <v>9017.6952</v>
       </c>
       <c r="AI5" t="n">
-        <v>17214.1187</v>
+        <v>18315.9586</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
@@ -1105,7 +1105,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -1141,10 +1141,10 @@
       <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="n">
-        <v>8239</v>
+        <v>7633.280778</v>
       </c>
       <c r="AI6" t="n">
-        <v>17311.2823</v>
+        <v>18617.7</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
@@ -1173,7 +1173,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -1209,10 +1209,10 @@
       <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="n">
-        <v>8367.372799999999</v>
+        <v>9467.391589999999</v>
       </c>
       <c r="AI7" t="n">
-        <v>17679.8632</v>
+        <v>21566.9318</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
@@ -1241,7 +1241,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -1277,10 +1277,10 @@
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="n">
-        <v>8501.223099999999</v>
+        <v>9804.552165589999</v>
       </c>
       <c r="AI8" t="n">
-        <v>17947.889</v>
+        <v>18943.3285</v>
       </c>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -1345,10 +1345,10 @@
       <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="n">
-        <v>8616.0198</v>
+        <v>9774.642465589999</v>
       </c>
       <c r="AI9" t="n">
-        <v>18075.3926</v>
+        <v>19141.3026</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
@@ -1377,7 +1377,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
@@ -1413,10 +1413,10 @@
       <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="n">
-        <v>8713.705594288211</v>
+        <v>9801.264913000001</v>
       </c>
       <c r="AI10" t="n">
-        <v>18317.903</v>
+        <v>19218.3892</v>
       </c>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
@@ -1445,792 +1445,70 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>621500</v>
-      </c>
-      <c r="C11" t="n">
-        <v>10569</v>
-      </c>
-      <c r="D11" t="n">
-        <v>28199</v>
-      </c>
-      <c r="E11" t="n">
-        <v>550746</v>
-      </c>
-      <c r="F11" t="n">
-        <v>216257</v>
-      </c>
-      <c r="G11" t="n">
-        <v>429709</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2879974</v>
-      </c>
-      <c r="I11" t="n">
-        <v>15393</v>
-      </c>
-      <c r="J11" t="n">
-        <v>20074</v>
-      </c>
-      <c r="K11" t="n">
-        <v>702839</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1261311</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1660932</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1462588</v>
-      </c>
-      <c r="O11" t="n">
-        <v>10586087</v>
-      </c>
-      <c r="P11" t="n">
-        <v>8353912</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>289565</v>
-      </c>
-      <c r="R11" t="n">
-        <v>23143</v>
-      </c>
-      <c r="S11" t="n">
-        <v>51069</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3556</v>
-      </c>
-      <c r="U11" t="n">
-        <v>16926381</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2870034</v>
-      </c>
-      <c r="W11" t="n">
-        <v>119639</v>
-      </c>
-      <c r="X11" t="n">
-        <v>8714393</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>20556</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>37523</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>485966</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>130607</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>42861</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>147828</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>1830929</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>186708</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>101192</v>
-      </c>
+          <t>2020年</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="n">
-        <v>8813.762199999999</v>
+        <v>9269.215749999999</v>
       </c>
       <c r="AI11" t="n">
-        <v>18531.0216</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>411847</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>10387958</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>6930</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>3682</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>2796003</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>708651</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>1933510</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>326295</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>10069346</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>309576</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>9426007</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>5981840</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>6282187</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>14378</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>5354</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>131992</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>8659</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>30875</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>190481</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>10561</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>39555</v>
-      </c>
-      <c r="BE11" t="n">
-        <v>4009</v>
-      </c>
-      <c r="BF11" t="n">
-        <v>1463064</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="n">
-        <v>8913.863300000001</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>18656.1625</v>
-      </c>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
-      <c r="AL12" t="inlineStr"/>
-      <c r="AM12" t="inlineStr"/>
-      <c r="AN12" t="inlineStr"/>
-      <c r="AO12" t="inlineStr"/>
-      <c r="AP12" t="inlineStr"/>
-      <c r="AQ12" t="inlineStr"/>
-      <c r="AR12" t="inlineStr"/>
-      <c r="AS12" t="inlineStr"/>
-      <c r="AT12" t="inlineStr"/>
-      <c r="AU12" t="inlineStr"/>
-      <c r="AV12" t="inlineStr"/>
-      <c r="AW12" t="inlineStr"/>
-      <c r="AX12" t="inlineStr"/>
-      <c r="AY12" t="inlineStr"/>
-      <c r="AZ12" t="inlineStr"/>
-      <c r="BA12" t="inlineStr"/>
-      <c r="BB12" t="inlineStr"/>
-      <c r="BC12" t="inlineStr"/>
-      <c r="BD12" t="inlineStr"/>
-      <c r="BE12" t="inlineStr"/>
-      <c r="BF12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr"/>
-      <c r="AH13" t="n">
-        <v>9003.4652704</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>18762.3424</v>
-      </c>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
-      <c r="AL13" t="inlineStr"/>
-      <c r="AM13" t="inlineStr"/>
-      <c r="AN13" t="inlineStr"/>
-      <c r="AO13" t="inlineStr"/>
-      <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="inlineStr"/>
-      <c r="AR13" t="inlineStr"/>
-      <c r="AS13" t="inlineStr"/>
-      <c r="AT13" t="inlineStr"/>
-      <c r="AU13" t="inlineStr"/>
-      <c r="AV13" t="inlineStr"/>
-      <c r="AW13" t="inlineStr"/>
-      <c r="AX13" t="inlineStr"/>
-      <c r="AY13" t="inlineStr"/>
-      <c r="AZ13" t="inlineStr"/>
-      <c r="BA13" t="inlineStr"/>
-      <c r="BB13" t="inlineStr"/>
-      <c r="BC13" t="inlineStr"/>
-      <c r="BD13" t="inlineStr"/>
-      <c r="BE13" t="inlineStr"/>
-      <c r="BF13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="n">
-        <v>9017.6952</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>18315.9586</v>
-      </c>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="inlineStr"/>
-      <c r="AM14" t="inlineStr"/>
-      <c r="AN14" t="inlineStr"/>
-      <c r="AO14" t="inlineStr"/>
-      <c r="AP14" t="inlineStr"/>
-      <c r="AQ14" t="inlineStr"/>
-      <c r="AR14" t="inlineStr"/>
-      <c r="AS14" t="inlineStr"/>
-      <c r="AT14" t="inlineStr"/>
-      <c r="AU14" t="inlineStr"/>
-      <c r="AV14" t="inlineStr"/>
-      <c r="AW14" t="inlineStr"/>
-      <c r="AX14" t="inlineStr"/>
-      <c r="AY14" t="inlineStr"/>
-      <c r="AZ14" t="inlineStr"/>
-      <c r="BA14" t="inlineStr"/>
-      <c r="BB14" t="inlineStr"/>
-      <c r="BC14" t="inlineStr"/>
-      <c r="BD14" t="inlineStr"/>
-      <c r="BE14" t="inlineStr"/>
-      <c r="BF14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="n">
-        <v>7633.280778</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>18617.7</v>
-      </c>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="inlineStr"/>
-      <c r="AM15" t="inlineStr"/>
-      <c r="AN15" t="inlineStr"/>
-      <c r="AO15" t="inlineStr"/>
-      <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="inlineStr"/>
-      <c r="AR15" t="inlineStr"/>
-      <c r="AS15" t="inlineStr"/>
-      <c r="AT15" t="inlineStr"/>
-      <c r="AU15" t="inlineStr"/>
-      <c r="AV15" t="inlineStr"/>
-      <c r="AW15" t="inlineStr"/>
-      <c r="AX15" t="inlineStr"/>
-      <c r="AY15" t="inlineStr"/>
-      <c r="AZ15" t="inlineStr"/>
-      <c r="BA15" t="inlineStr"/>
-      <c r="BB15" t="inlineStr"/>
-      <c r="BC15" t="inlineStr"/>
-      <c r="BD15" t="inlineStr"/>
-      <c r="BE15" t="inlineStr"/>
-      <c r="BF15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="n">
-        <v>9467.391589999999</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>21566.9318</v>
-      </c>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
-      <c r="AL16" t="inlineStr"/>
-      <c r="AM16" t="inlineStr"/>
-      <c r="AN16" t="inlineStr"/>
-      <c r="AO16" t="inlineStr"/>
-      <c r="AP16" t="inlineStr"/>
-      <c r="AQ16" t="inlineStr"/>
-      <c r="AR16" t="inlineStr"/>
-      <c r="AS16" t="inlineStr"/>
-      <c r="AT16" t="inlineStr"/>
-      <c r="AU16" t="inlineStr"/>
-      <c r="AV16" t="inlineStr"/>
-      <c r="AW16" t="inlineStr"/>
-      <c r="AX16" t="inlineStr"/>
-      <c r="AY16" t="inlineStr"/>
-      <c r="AZ16" t="inlineStr"/>
-      <c r="BA16" t="inlineStr"/>
-      <c r="BB16" t="inlineStr"/>
-      <c r="BC16" t="inlineStr"/>
-      <c r="BD16" t="inlineStr"/>
-      <c r="BE16" t="inlineStr"/>
-      <c r="BF16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="n">
-        <v>9804.552165589999</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>18943.3285</v>
-      </c>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
-      <c r="AL17" t="inlineStr"/>
-      <c r="AM17" t="inlineStr"/>
-      <c r="AN17" t="inlineStr"/>
-      <c r="AO17" t="inlineStr"/>
-      <c r="AP17" t="inlineStr"/>
-      <c r="AQ17" t="inlineStr"/>
-      <c r="AR17" t="inlineStr"/>
-      <c r="AS17" t="inlineStr"/>
-      <c r="AT17" t="inlineStr"/>
-      <c r="AU17" t="inlineStr"/>
-      <c r="AV17" t="inlineStr"/>
-      <c r="AW17" t="inlineStr"/>
-      <c r="AX17" t="inlineStr"/>
-      <c r="AY17" t="inlineStr"/>
-      <c r="AZ17" t="inlineStr"/>
-      <c r="BA17" t="inlineStr"/>
-      <c r="BB17" t="inlineStr"/>
-      <c r="BC17" t="inlineStr"/>
-      <c r="BD17" t="inlineStr"/>
-      <c r="BE17" t="inlineStr"/>
-      <c r="BF17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="inlineStr"/>
-      <c r="AH18" t="n">
-        <v>9774.642465589999</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>19141.3026</v>
-      </c>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
-      <c r="AL18" t="inlineStr"/>
-      <c r="AM18" t="inlineStr"/>
-      <c r="AN18" t="inlineStr"/>
-      <c r="AO18" t="inlineStr"/>
-      <c r="AP18" t="inlineStr"/>
-      <c r="AQ18" t="inlineStr"/>
-      <c r="AR18" t="inlineStr"/>
-      <c r="AS18" t="inlineStr"/>
-      <c r="AT18" t="inlineStr"/>
-      <c r="AU18" t="inlineStr"/>
-      <c r="AV18" t="inlineStr"/>
-      <c r="AW18" t="inlineStr"/>
-      <c r="AX18" t="inlineStr"/>
-      <c r="AY18" t="inlineStr"/>
-      <c r="AZ18" t="inlineStr"/>
-      <c r="BA18" t="inlineStr"/>
-      <c r="BB18" t="inlineStr"/>
-      <c r="BC18" t="inlineStr"/>
-      <c r="BD18" t="inlineStr"/>
-      <c r="BE18" t="inlineStr"/>
-      <c r="BF18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="inlineStr"/>
-      <c r="AE19" t="inlineStr"/>
-      <c r="AF19" t="inlineStr"/>
-      <c r="AG19" t="inlineStr"/>
-      <c r="AH19" t="n">
-        <v>9801.264913000001</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>19218.3892</v>
-      </c>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
-      <c r="AL19" t="inlineStr"/>
-      <c r="AM19" t="inlineStr"/>
-      <c r="AN19" t="inlineStr"/>
-      <c r="AO19" t="inlineStr"/>
-      <c r="AP19" t="inlineStr"/>
-      <c r="AQ19" t="inlineStr"/>
-      <c r="AR19" t="inlineStr"/>
-      <c r="AS19" t="inlineStr"/>
-      <c r="AT19" t="inlineStr"/>
-      <c r="AU19" t="inlineStr"/>
-      <c r="AV19" t="inlineStr"/>
-      <c r="AW19" t="inlineStr"/>
-      <c r="AX19" t="inlineStr"/>
-      <c r="AY19" t="inlineStr"/>
-      <c r="AZ19" t="inlineStr"/>
-      <c r="BA19" t="inlineStr"/>
-      <c r="BB19" t="inlineStr"/>
-      <c r="BC19" t="inlineStr"/>
-      <c r="BD19" t="inlineStr"/>
-      <c r="BE19" t="inlineStr"/>
-      <c r="BF19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr"/>
-      <c r="AD20" t="inlineStr"/>
-      <c r="AE20" t="inlineStr"/>
-      <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="inlineStr"/>
-      <c r="AH20" t="n">
-        <v>9269.215749999999</v>
-      </c>
-      <c r="AI20" t="n">
         <v>19089.3184</v>
       </c>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
-      <c r="AL20" t="inlineStr"/>
-      <c r="AM20" t="inlineStr"/>
-      <c r="AN20" t="inlineStr"/>
-      <c r="AO20" t="inlineStr"/>
-      <c r="AP20" t="inlineStr"/>
-      <c r="AQ20" t="inlineStr"/>
-      <c r="AR20" t="inlineStr"/>
-      <c r="AS20" t="inlineStr"/>
-      <c r="AT20" t="inlineStr"/>
-      <c r="AU20" t="inlineStr"/>
-      <c r="AV20" t="inlineStr"/>
-      <c r="AW20" t="inlineStr"/>
-      <c r="AX20" t="inlineStr"/>
-      <c r="AY20" t="inlineStr"/>
-      <c r="AZ20" t="inlineStr"/>
-      <c r="BA20" t="inlineStr"/>
-      <c r="BB20" t="inlineStr"/>
-      <c r="BC20" t="inlineStr"/>
-      <c r="BD20" t="inlineStr"/>
-      <c r="BE20" t="inlineStr"/>
-      <c r="BF20" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="inlineStr"/>
+      <c r="AS11" t="inlineStr"/>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AU11" t="inlineStr"/>
+      <c r="AV11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr"/>
+      <c r="AX11" t="inlineStr"/>
+      <c r="AY11" t="inlineStr"/>
+      <c r="AZ11" t="inlineStr"/>
+      <c r="BA11" t="inlineStr"/>
+      <c r="BB11" t="inlineStr"/>
+      <c r="BC11" t="inlineStr"/>
+      <c r="BD11" t="inlineStr"/>
+      <c r="BE11" t="inlineStr"/>
+      <c r="BF11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
